--- a/Teleopti CODES AgtState h.xlsx
+++ b/Teleopti CODES AgtState h.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.Rabota\IKEA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27600" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bitmap" sheetId="2" r:id="rId1"/>
     <sheet name="AgtState.h" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -931,8 +926,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1113,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1142,7 +1137,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1170,18 +1164,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1189,6 +1174,15 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1252,7 +1246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1284,10 +1278,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,7 +1312,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1495,52 +1487,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="3.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="51" style="11" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="11"/>
-    <col min="14" max="14" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="8" width="3.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="51" style="10" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="10"/>
+    <col min="14" max="14" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="155.25" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>296</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1565,11 +1557,11 @@
       <c r="H2" s="9">
         <v>0</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>300</v>
       </c>
@@ -1594,529 +1586,529 @@
       <c r="H3" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="F4" s="12">
+    <row r="4" spans="1:18">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="F4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>0</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="F5" s="12">
+    <row r="5" spans="1:18">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>8</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="F6" s="12">
+    <row r="6" spans="1:18">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>4</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>0</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="F7" s="12">
+    <row r="7" spans="1:18">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="F8" s="12">
+    <row r="8" spans="1:18">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>12304</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>3010</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="F9" s="12">
+    <row r="9" spans="1:18">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="F9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>8</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>131088</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>20010</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="F10" s="12">
+    <row r="10" spans="1:18">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="11">
         <v>0</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>4</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>135232</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>21040</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="F11" s="12">
+    <row r="11" spans="1:18">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="11">
         <v>0</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>0</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>2</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>268435968</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>10000200</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="F12" s="12">
+    <row r="12" spans="1:18">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="F12" s="11">
         <v>0</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>268440064</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>10001200</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="F13" s="12">
+    <row r="13" spans="1:18">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="F13" s="11">
         <v>2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>0</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="F14" s="12">
+    <row r="14" spans="1:18">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="F14" s="11">
         <v>4</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>0</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17">
+    <row r="15" spans="1:18">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16">
         <v>8</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>0</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="D16" s="13">
+    <row r="16" spans="1:18">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="D16" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="11"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="D17" s="13">
+    <row r="17" spans="1:9">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="24" t="s">
+      <c r="F17" s="11"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="D18" s="13">
+    <row r="18" spans="1:9">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="12">
         <v>4</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="24" t="s">
+      <c r="F18" s="11"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="D19" s="13">
+    <row r="19" spans="1:9">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="D19" s="12">
         <v>8</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="24" t="s">
+      <c r="F19" s="11"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18">
+    <row r="20" spans="1:9">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17">
         <v>3</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="25" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14">
+    <row r="21" spans="1:9">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
         <v>2</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16" t="s">
+      <c r="F21" s="11"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14">
+    <row r="22" spans="1:9">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13">
         <v>1</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16" t="s">
+      <c r="F22" s="11"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14">
+    <row r="23" spans="1:9">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13">
         <v>4</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16" t="s">
+      <c r="F23" s="11"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14">
+    <row r="24" spans="1:9">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13">
         <v>8</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16" t="s">
+      <c r="F24" s="11"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19">
+    <row r="25" spans="1:9">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18">
         <v>3</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13">
+    <row r="26" spans="1:9">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12">
         <v>2</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="F26" s="12"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="24" t="s">
+      <c r="D26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13">
+    <row r="27" spans="1:9">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="24" t="s">
+      <c r="D27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13">
+    <row r="28" spans="1:9">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12">
         <v>4</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="F28" s="12"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="24" t="s">
+      <c r="D28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18">
+    <row r="29" spans="1:9">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17">
         <v>8</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="25" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14">
+    <row r="30" spans="1:9">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13">
         <v>2</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="F30" s="12"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16" t="s">
+      <c r="D30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14">
+    <row r="31" spans="1:9">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="F31" s="12"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="24" t="s">
+      <c r="D31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14">
+    <row r="32" spans="1:9">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13">
         <v>4</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="F32" s="12"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16" t="s">
+      <c r="D32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19">
+    <row r="33" spans="1:9">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18">
         <v>8</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+    <row r="34" spans="1:9">
+      <c r="A34" s="16">
         <v>1</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2130,14 +2122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -2147,7 +2139,7 @@
     <col min="6" max="6" width="14.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
@@ -2164,7 +2156,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -2182,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2203,7 +2195,7 @@
         <v>4294967295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -2221,7 +2213,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -2239,7 +2231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -2257,7 +2249,7 @@
         <v>268435584</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -2275,7 +2267,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -2293,7 +2285,7 @@
         <v>268435520</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -2311,7 +2303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -2329,7 +2321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -2347,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -2365,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -2383,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -2401,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -2419,7 +2411,7 @@
         <v>268435456</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -2437,7 +2429,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -2455,7 +2447,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -2473,7 +2465,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -2491,7 +2483,7 @@
         <v>65792</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -2509,7 +2501,7 @@
         <v>65664</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2527,7 +2519,7 @@
         <v>268501120</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -2545,7 +2537,7 @@
         <v>268501056</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -2563,7 +2555,7 @@
         <v>65568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -2581,7 +2573,7 @@
         <v>65552</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -2599,7 +2591,7 @@
         <v>65544</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -2617,7 +2609,7 @@
         <v>65540</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -2635,7 +2627,7 @@
         <v>65538</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -2653,7 +2645,7 @@
         <v>65537</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -2671,7 +2663,7 @@
         <v>66048</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -2689,7 +2681,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -2707,7 +2699,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -2725,7 +2717,7 @@
         <v>268439680</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -2743,7 +2735,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -2761,7 +2753,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -2779,7 +2771,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2797,7 +2789,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -2815,7 +2807,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -2833,7 +2825,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -2851,7 +2843,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -2869,7 +2861,7 @@
         <v>131200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -2887,7 +2879,7 @@
         <v>131104</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -2905,7 +2897,7 @@
         <v>131076</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -2923,7 +2915,7 @@
         <v>131080</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -2941,7 +2933,7 @@
         <v>131584</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -2959,7 +2951,7 @@
         <v>8320</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -2977,7 +2969,7 @@
         <v>8224</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -2995,7 +2987,7 @@
         <v>8196</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -3013,7 +3005,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -3031,7 +3023,7 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -3049,7 +3041,7 @@
         <v>196736</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -3067,7 +3059,7 @@
         <v>196640</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -3085,7 +3077,7 @@
         <v>196612</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -3103,7 +3095,7 @@
         <v>196616</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -3121,7 +3113,7 @@
         <v>197120</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -3139,7 +3131,7 @@
         <v>12416</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -3157,7 +3149,7 @@
         <v>12320</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -3175,7 +3167,7 @@
         <v>12292</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -3193,7 +3185,7 @@
         <v>12296</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>142</v>
       </c>
@@ -3211,7 +3203,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -3229,7 +3221,7 @@
         <v>69888</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -3247,7 +3239,7 @@
         <v>69760</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>207</v>
       </c>
@@ -3265,7 +3257,7 @@
         <v>268505216</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -3283,7 +3275,7 @@
         <v>69664</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -3301,7 +3293,7 @@
         <v>69648</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>207</v>
       </c>
@@ -3319,7 +3311,7 @@
         <v>69640</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3337,7 +3329,7 @@
         <v>69636</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>207</v>
       </c>
@@ -3355,7 +3347,7 @@
         <v>69634</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -3373,7 +3365,7 @@
         <v>69633</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -3391,7 +3383,7 @@
         <v>70144</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>207</v>
       </c>
@@ -3409,7 +3401,7 @@
         <v>135296</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>207</v>
       </c>
@@ -3427,7 +3419,7 @@
         <v>135200</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>207</v>
       </c>
@@ -3445,7 +3437,7 @@
         <v>135172</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -3463,7 +3455,7 @@
         <v>135176</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -3481,7 +3473,7 @@
         <v>135680</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>207</v>
       </c>
@@ -3499,7 +3491,7 @@
         <v>73856</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -3517,7 +3509,7 @@
         <v>73760</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -3535,7 +3527,7 @@
         <v>73732</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -3553,7 +3545,7 @@
         <v>73736</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -3571,7 +3563,7 @@
         <v>74240</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>207</v>
       </c>
@@ -3589,7 +3581,7 @@
         <v>77952</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -3607,7 +3599,7 @@
         <v>77856</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>207</v>
       </c>
@@ -3625,7 +3617,7 @@
         <v>77828</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>207</v>
       </c>
@@ -3643,7 +3635,7 @@
         <v>77832</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>207</v>
       </c>
@@ -3661,7 +3653,7 @@
         <v>78336</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>207</v>
       </c>
@@ -3679,7 +3671,7 @@
         <v>200832</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -3697,7 +3689,7 @@
         <v>200736</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -3715,7 +3707,7 @@
         <v>200708</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -3733,7 +3725,7 @@
         <v>200712</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>207</v>
       </c>
@@ -3751,7 +3743,7 @@
         <v>201216</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -3769,7 +3761,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -3787,7 +3779,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>143</v>
       </c>
@@ -3805,7 +3797,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -3823,7 +3815,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -3841,7 +3833,7 @@
         <v>196608</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -3859,7 +3851,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -3877,7 +3869,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -3895,7 +3887,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>144</v>
       </c>
@@ -3913,7 +3905,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -3931,7 +3923,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -3949,7 +3941,7 @@
         <v>135168</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -3967,7 +3959,7 @@
         <v>73728</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>145</v>
       </c>
@@ -3985,7 +3977,7 @@
         <v>200704</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>145</v>
       </c>
@@ -4003,12 +3995,12 @@
         <v>77824</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>146</v>
       </c>
@@ -4026,7 +4018,7 @@
         <v>33554432</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>146</v>
       </c>
@@ -4044,7 +4036,7 @@
         <v>16777216</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>146</v>
       </c>
@@ -4062,7 +4054,7 @@
         <v>67108864</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>146</v>
       </c>
@@ -4080,7 +4072,7 @@
         <v>134217728</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -4098,7 +4090,7 @@
         <v>16908288</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>146</v>
       </c>
@@ -4116,7 +4108,7 @@
         <v>33619968</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -4134,7 +4126,7 @@
         <v>16842752</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -4152,7 +4144,7 @@
         <v>16973824</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -4170,7 +4162,7 @@
         <v>16785408</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -4188,7 +4180,7 @@
         <v>33558528</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -4206,7 +4198,7 @@
         <v>16781312</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -4224,7 +4216,7 @@
         <v>16789504</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -4242,7 +4234,7 @@
         <v>16912384</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -4260,7 +4252,7 @@
         <v>16850944</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -4278,7 +4270,7 @@
         <v>33624064</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -4296,7 +4288,7 @@
         <v>16846848</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -4314,7 +4306,7 @@
         <v>16855040</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -4332,7 +4324,7 @@
         <v>16977920</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -4350,7 +4342,7 @@
         <v>2097152</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -4368,7 +4360,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -4386,7 +4378,7 @@
         <v>4194304</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -4404,7 +4396,7 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -4422,7 +4414,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -4440,7 +4432,7 @@
         <v>2162688</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -4458,7 +4450,7 @@
         <v>1114112</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -4476,7 +4468,7 @@
         <v>1245184</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4494,7 +4486,7 @@
         <v>1056768</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4512,7 +4504,7 @@
         <v>2101248</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -4530,7 +4522,7 @@
         <v>1052672</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -4548,7 +4540,7 @@
         <v>1060864</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -4566,7 +4558,7 @@
         <v>1183744</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -4584,7 +4576,7 @@
         <v>1122304</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>147</v>
       </c>
@@ -4602,7 +4594,7 @@
         <v>2166784</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -4620,7 +4612,7 @@
         <v>1118208</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -4638,7 +4630,7 @@
         <v>1126400</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>147</v>
       </c>

--- a/Teleopti CODES AgtState h.xlsx
+++ b/Teleopti CODES AgtState h.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.Rabota\IKEA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27600" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Bitmap" sheetId="2" r:id="rId1"/>
     <sheet name="AgtState.h" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="304">
   <si>
     <t>eUNDEFINED</t>
   </si>
@@ -911,9 +916,6 @@
     <t>NGCC call</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Undefined</t>
   </si>
   <si>
@@ -921,17 +923,34 @@
   </si>
   <si>
     <t>NGCC_LOGOUT</t>
+  </si>
+  <si>
+    <t>Description 21040</t>
+  </si>
+  <si>
+    <t>постобработка</t>
+  </si>
+  <si>
+    <t>Готов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -962,12 +981,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -1106,85 +1131,126 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,7 +1312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1278,9 +1344,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1312,6 +1379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1487,27 +1555,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="3.28515625" style="13" customWidth="1"/>
     <col min="9" max="9" width="51" style="10" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="10"/>
     <col min="14" max="14" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" style="10" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="10"/>
+    <col min="19" max="19" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" style="10" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="155.25" customHeight="1">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>292</v>
       </c>
@@ -1528,69 +1600,122 @@
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="29"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="N2" s="10">
+        <v>12304</v>
+      </c>
+      <c r="O2" s="30">
+        <v>3010</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="N3" s="10">
+        <v>131088</v>
+      </c>
+      <c r="O3" s="10">
+        <v>20010</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="D4" s="12"/>
@@ -1606,8 +1731,26 @@
       <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="N4" s="10">
+        <v>135232</v>
+      </c>
+      <c r="O4" s="10">
+        <v>21040</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="D5" s="12"/>
@@ -1623,25 +1766,58 @@
       <c r="I5" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="N5" s="10">
+        <v>268435968</v>
+      </c>
+      <c r="O5" s="10">
+        <v>10000200</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="F6" s="11">
+      <c r="F6" s="31">
         <v>0</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="32">
         <v>4</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="33">
         <v>0</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="N6" s="10">
+        <v>268440064</v>
+      </c>
+      <c r="O6" s="10">
+        <v>10001200</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="D7" s="12"/>
@@ -1658,26 +1834,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="F8" s="11">
+      <c r="F8" s="35">
         <v>0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="36">
         <v>1</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="37">
         <v>0</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="38" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="10">
         <v>12304</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="30">
         <v>3010</v>
       </c>
       <c r="P8" s="20" t="s">
@@ -1687,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="D9" s="12"/>
@@ -1716,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="D10" s="12"/>
@@ -1748,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="D11" s="12"/>
@@ -1777,7 +1953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="D12" s="12"/>
@@ -1809,7 +1985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="D13" s="12"/>
@@ -1826,7 +2002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="D14" s="12"/>
@@ -1843,7 +2019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -1862,19 +2038,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
-      <c r="D16" s="12">
+      <c r="D16" s="45">
         <v>2</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="21" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="D17" s="12">
@@ -1886,7 +2064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12">
@@ -1898,7 +2076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="D19" s="12">
@@ -1910,7 +2088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -1925,7 +2103,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
@@ -1938,20 +2116,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="13">
+      <c r="E22" s="32">
         <v>1</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
@@ -1964,7 +2143,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="D24" s="12"/>
@@ -1977,22 +2156,22 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41">
         <v>3</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>2</v>
@@ -2004,7 +2183,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12">
         <v>1</v>
@@ -2016,7 +2195,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12">
         <v>4</v>
@@ -2028,7 +2207,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="17">
         <v>8</v>
@@ -2043,7 +2222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13">
@@ -2056,7 +2235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13">
@@ -2069,7 +2248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13">
@@ -2082,7 +2261,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18">
@@ -2097,7 +2276,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>1</v>
       </c>
@@ -2113,8 +2292,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2122,14 +2302,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -2139,7 +2319,7 @@
     <col min="6" max="6" width="14.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
@@ -2156,7 +2336,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -2174,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2195,7 +2375,7 @@
         <v>4294967295</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -2213,7 +2393,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -2231,7 +2411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -2249,7 +2429,7 @@
         <v>268435584</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -2267,7 +2447,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -2285,7 +2465,7 @@
         <v>268435520</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -2303,7 +2483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -2321,7 +2501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -2339,7 +2519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -2357,7 +2537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -2375,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -2393,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -2411,7 +2591,7 @@
         <v>268435456</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -2429,7 +2609,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -2447,7 +2627,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -2465,7 +2645,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -2483,7 +2663,7 @@
         <v>65792</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -2501,7 +2681,7 @@
         <v>65664</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2519,7 +2699,7 @@
         <v>268501120</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -2537,7 +2717,7 @@
         <v>268501056</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -2555,7 +2735,7 @@
         <v>65568</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -2573,7 +2753,7 @@
         <v>65552</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -2591,7 +2771,7 @@
         <v>65544</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -2609,7 +2789,7 @@
         <v>65540</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -2627,7 +2807,7 @@
         <v>65538</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -2645,7 +2825,7 @@
         <v>65537</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -2663,7 +2843,7 @@
         <v>66048</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -2681,7 +2861,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -2699,7 +2879,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -2717,7 +2897,7 @@
         <v>268439680</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -2735,7 +2915,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -2753,7 +2933,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -2771,7 +2951,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2789,7 +2969,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -2807,7 +2987,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -2825,7 +3005,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -2843,7 +3023,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -2861,7 +3041,7 @@
         <v>131200</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -2879,7 +3059,7 @@
         <v>131104</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -2897,7 +3077,7 @@
         <v>131076</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -2915,7 +3095,7 @@
         <v>131080</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -2933,7 +3113,7 @@
         <v>131584</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -2951,7 +3131,7 @@
         <v>8320</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -2969,7 +3149,7 @@
         <v>8224</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -2987,7 +3167,7 @@
         <v>8196</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -3005,7 +3185,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -3023,7 +3203,7 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -3041,7 +3221,7 @@
         <v>196736</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -3059,7 +3239,7 @@
         <v>196640</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -3077,7 +3257,7 @@
         <v>196612</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -3095,7 +3275,7 @@
         <v>196616</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -3113,7 +3293,7 @@
         <v>197120</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -3131,7 +3311,7 @@
         <v>12416</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -3149,7 +3329,7 @@
         <v>12320</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -3167,7 +3347,7 @@
         <v>12292</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -3185,7 +3365,7 @@
         <v>12296</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>142</v>
       </c>
@@ -3203,7 +3383,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -3221,7 +3401,7 @@
         <v>69888</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -3239,7 +3419,7 @@
         <v>69760</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>207</v>
       </c>
@@ -3257,7 +3437,7 @@
         <v>268505216</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -3275,7 +3455,7 @@
         <v>69664</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -3293,7 +3473,7 @@
         <v>69648</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>207</v>
       </c>
@@ -3311,7 +3491,7 @@
         <v>69640</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3329,7 +3509,7 @@
         <v>69636</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>207</v>
       </c>
@@ -3347,7 +3527,7 @@
         <v>69634</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -3365,7 +3545,7 @@
         <v>69633</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -3383,7 +3563,7 @@
         <v>70144</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>207</v>
       </c>
@@ -3401,7 +3581,7 @@
         <v>135296</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>207</v>
       </c>
@@ -3419,7 +3599,7 @@
         <v>135200</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>207</v>
       </c>
@@ -3437,7 +3617,7 @@
         <v>135172</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -3455,7 +3635,7 @@
         <v>135176</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -3473,7 +3653,7 @@
         <v>135680</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>207</v>
       </c>
@@ -3491,7 +3671,7 @@
         <v>73856</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -3509,7 +3689,7 @@
         <v>73760</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -3527,7 +3707,7 @@
         <v>73732</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -3545,7 +3725,7 @@
         <v>73736</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -3563,7 +3743,7 @@
         <v>74240</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>207</v>
       </c>
@@ -3581,7 +3761,7 @@
         <v>77952</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -3599,7 +3779,7 @@
         <v>77856</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>207</v>
       </c>
@@ -3617,7 +3797,7 @@
         <v>77828</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>207</v>
       </c>
@@ -3635,7 +3815,7 @@
         <v>77832</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>207</v>
       </c>
@@ -3653,7 +3833,7 @@
         <v>78336</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>207</v>
       </c>
@@ -3671,7 +3851,7 @@
         <v>200832</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -3689,7 +3869,7 @@
         <v>200736</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -3707,7 +3887,7 @@
         <v>200708</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -3725,7 +3905,7 @@
         <v>200712</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>207</v>
       </c>
@@ -3743,7 +3923,7 @@
         <v>201216</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -3761,7 +3941,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -3779,7 +3959,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>143</v>
       </c>
@@ -3797,7 +3977,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -3815,7 +3995,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -3833,7 +4013,7 @@
         <v>196608</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -3851,7 +4031,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -3869,7 +4049,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -3887,7 +4067,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>144</v>
       </c>
@@ -3905,7 +4085,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -3923,7 +4103,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -3941,7 +4121,7 @@
         <v>135168</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -3959,7 +4139,7 @@
         <v>73728</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>145</v>
       </c>
@@ -3977,7 +4157,7 @@
         <v>200704</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>145</v>
       </c>
@@ -3995,12 +4175,12 @@
         <v>77824</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>146</v>
       </c>
@@ -4018,7 +4198,7 @@
         <v>33554432</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>146</v>
       </c>
@@ -4036,7 +4216,7 @@
         <v>16777216</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>146</v>
       </c>
@@ -4054,7 +4234,7 @@
         <v>67108864</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
@@ -4072,7 +4252,7 @@
         <v>134217728</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -4090,7 +4270,7 @@
         <v>16908288</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>146</v>
       </c>
@@ -4108,7 +4288,7 @@
         <v>33619968</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -4126,7 +4306,7 @@
         <v>16842752</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -4144,7 +4324,7 @@
         <v>16973824</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -4162,7 +4342,7 @@
         <v>16785408</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -4180,7 +4360,7 @@
         <v>33558528</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -4198,7 +4378,7 @@
         <v>16781312</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -4216,7 +4396,7 @@
         <v>16789504</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -4234,7 +4414,7 @@
         <v>16912384</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -4252,7 +4432,7 @@
         <v>16850944</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -4270,7 +4450,7 @@
         <v>33624064</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -4288,7 +4468,7 @@
         <v>16846848</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -4306,7 +4486,7 @@
         <v>16855040</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -4324,7 +4504,7 @@
         <v>16977920</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -4342,7 +4522,7 @@
         <v>2097152</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -4360,7 +4540,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -4378,7 +4558,7 @@
         <v>4194304</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -4396,7 +4576,7 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -4414,7 +4594,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -4432,7 +4612,7 @@
         <v>2162688</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -4450,7 +4630,7 @@
         <v>1114112</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -4468,7 +4648,7 @@
         <v>1245184</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4486,7 +4666,7 @@
         <v>1056768</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4504,7 +4684,7 @@
         <v>2101248</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -4522,7 +4702,7 @@
         <v>1052672</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -4540,7 +4720,7 @@
         <v>1060864</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -4558,7 +4738,7 @@
         <v>1183744</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -4576,7 +4756,7 @@
         <v>1122304</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>147</v>
       </c>
@@ -4594,7 +4774,7 @@
         <v>2166784</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -4612,7 +4792,7 @@
         <v>1118208</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -4630,7 +4810,7 @@
         <v>1126400</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -4649,7 +4829,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
